--- a/HST_retrun_PAYROLL_info_new.xlsx
+++ b/HST_retrun_PAYROLL_info_new.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="312" windowWidth="20196" windowHeight="10020" tabRatio="988" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="96" yWindow="312" windowWidth="20196" windowHeight="10020" tabRatio="988" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="q1-122013-022014" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,19 @@
     <sheet name="q4-062017-082017" sheetId="19" r:id="rId15"/>
     <sheet name="q1-092017-112017" sheetId="20" r:id="rId16"/>
     <sheet name="q2-122017-022018" sheetId="21" r:id="rId17"/>
-    <sheet name="payroll" sheetId="4" r:id="rId18"/>
-    <sheet name="lease_fees" sheetId="7" r:id="rId19"/>
-    <sheet name="6jugstone_mortgage" sheetId="12" r:id="rId20"/>
+    <sheet name="q3-032018-052018" sheetId="22" r:id="rId18"/>
+    <sheet name="q4-062018-082018" sheetId="23" r:id="rId19"/>
+    <sheet name="q1-092018-112018" sheetId="24" r:id="rId20"/>
+    <sheet name="payroll" sheetId="4" r:id="rId21"/>
+    <sheet name="lease_fees" sheetId="7" r:id="rId22"/>
+    <sheet name="6jugstone_mortgage" sheetId="12" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="123">
   <si>
     <t>Period(Quarterly)</t>
   </si>
@@ -384,6 +387,24 @@
   </si>
   <si>
     <t>Total Paid:</t>
+  </si>
+  <si>
+    <t>2017-03-01 - 2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-06-01 - 2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-09-01 - 2018-11-31</t>
   </si>
 </sst>
 </file>
@@ -391,8 +412,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -658,13 +679,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -680,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -714,19 +735,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,21 +757,21 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -813,7 +834,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,7 +869,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,6 +1192,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2255,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2527,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2782,6 +2804,7 @@
         <f>SUM(B3:B16)</f>
         <v>42188.58</v>
       </c>
+      <c r="D17" s="31"/>
       <c r="E17">
         <f>SUM(E3:E16)</f>
         <v>37335.026548672569</v>
@@ -3005,7 +3028,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3167,2132 +3190,185 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="E55" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="6.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="8">
-        <v>5833.34</v>
+        <v>117</v>
+      </c>
+      <c r="C2">
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1299.24</v>
-      </c>
-      <c r="H2" s="16">
-        <v>2916.67</v>
-      </c>
-      <c r="I2" s="17">
-        <v>2396.9899999999998</v>
-      </c>
-      <c r="J2" s="18">
-        <v>389.74</v>
-      </c>
-      <c r="K2" s="18">
-        <v>129.94</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2">
-        <v>129.94</v>
-      </c>
-      <c r="O2" s="13">
-        <v>2916.67</v>
-      </c>
-      <c r="P2" s="26">
-        <v>2396.9899999999998</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>389.74</v>
-      </c>
-      <c r="R2" s="15">
-        <v>129.94</v>
-      </c>
-      <c r="S2" s="15">
-        <v>129.94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="8">
-        <v>5833.34</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1299.24</v>
-      </c>
-      <c r="H3" s="16">
-        <v>2916.67</v>
-      </c>
-      <c r="I3" s="17">
-        <v>2396.9899999999998</v>
-      </c>
-      <c r="J3" s="18">
-        <v>389.74</v>
-      </c>
-      <c r="K3" s="18">
-        <v>129.94</v>
-      </c>
-      <c r="L3" s="19"/>
-      <c r="M3">
-        <v>129.94</v>
-      </c>
-      <c r="O3" s="16">
-        <v>2916.67</v>
-      </c>
-      <c r="P3" s="17">
-        <v>2396.9899999999998</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>389.74</v>
-      </c>
-      <c r="R3" s="19">
-        <v>129.94</v>
-      </c>
-      <c r="S3" s="19">
-        <v>129.94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="8">
-        <v>5833.34</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1299.24</v>
-      </c>
-      <c r="H4" s="16">
-        <v>2916.67</v>
-      </c>
-      <c r="I4" s="17">
-        <v>2396.9899999999998</v>
-      </c>
-      <c r="J4" s="18">
-        <v>389.74</v>
-      </c>
-      <c r="K4" s="18">
-        <v>129.94</v>
-      </c>
-      <c r="L4" s="19"/>
-      <c r="M4">
-        <v>129.94</v>
-      </c>
-      <c r="O4" s="16">
-        <v>2916.67</v>
-      </c>
-      <c r="P4" s="17">
-        <v>2396.9899999999998</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>389.74</v>
-      </c>
-      <c r="R4" s="19">
-        <v>129.94</v>
-      </c>
-      <c r="S4" s="19">
-        <v>129.94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2916.67</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8">
-        <v>649.62</v>
-      </c>
-      <c r="H5" s="16">
-        <v>2916.67</v>
-      </c>
-      <c r="I5" s="17">
-        <v>2396.9899999999998</v>
-      </c>
-      <c r="J5" s="18">
-        <v>389.74</v>
-      </c>
-      <c r="K5" s="18">
-        <v>129.94</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5">
-        <v>129.94</v>
-      </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2916.67</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="8">
-        <v>649.62</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2916.67</v>
-      </c>
-      <c r="I6" s="17">
-        <v>2396.9899999999998</v>
-      </c>
-      <c r="J6" s="18">
-        <v>389.74</v>
-      </c>
-      <c r="K6" s="18">
-        <v>129.94</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6">
-        <v>129.94</v>
-      </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8">
-        <v>507.92</v>
-      </c>
-      <c r="H7" s="16">
-        <v>1458</v>
-      </c>
-      <c r="I7" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="J7" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="K7" s="18">
-        <v>57.73</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7">
-        <v>57.73</v>
-      </c>
-      <c r="O7" s="16">
-        <v>1458</v>
-      </c>
-      <c r="P7" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="R7" s="19">
-        <v>57.73</v>
-      </c>
-      <c r="S7" s="19">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="8">
-        <v>272.32</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1458</v>
-      </c>
-      <c r="I8" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="J8" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="K8" s="18">
-        <v>57.73</v>
-      </c>
-      <c r="L8" s="19"/>
-      <c r="M8">
-        <v>57.73</v>
-      </c>
-      <c r="O8" s="16">
-        <v>1458</v>
-      </c>
-      <c r="P8" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="R8" s="19">
-        <v>57.73</v>
-      </c>
-      <c r="S8" s="19">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="8">
-        <v>390.12</v>
-      </c>
-      <c r="H9" s="16">
-        <v>1458</v>
-      </c>
-      <c r="I9" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="J9" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="K9" s="18">
-        <v>57.73</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9">
-        <v>57.73</v>
-      </c>
-      <c r="O9" s="16">
-        <v>1458</v>
-      </c>
-      <c r="P9" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="R9" s="19">
-        <v>57.73</v>
-      </c>
-      <c r="S9" s="19">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12">
-        <f>SUM(C2:C9)</f>
-        <v>32081.360000000001</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="12">
-        <f>SUM(F2:F9)</f>
-        <v>6367.32</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="20">
-        <f>SUM(H2:H9)</f>
-        <v>18957.349999999999</v>
-      </c>
-      <c r="I10" s="21">
-        <f>SUM(I2:I9)</f>
-        <v>15946.96</v>
-      </c>
-      <c r="J10" s="22">
-        <f>SUM(J2:J9)</f>
-        <v>2187.5</v>
-      </c>
-      <c r="K10" s="22">
-        <f>SUM(K2:K9)</f>
-        <v>822.8900000000001</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="2">
-        <f>SUM(M2:M9)</f>
-        <v>822.8900000000001</v>
-      </c>
-      <c r="O10" s="20">
-        <f>SUM(O2:O9)</f>
-        <v>13124.01</v>
-      </c>
-      <c r="P10" s="21">
-        <f>SUM(P2:P9)</f>
-        <v>11152.98</v>
-      </c>
-      <c r="Q10" s="22">
-        <f>SUM(Q2:Q9)</f>
-        <v>1408.0199999999998</v>
-      </c>
-      <c r="R10" s="23">
-        <f>SUM(R2:R9)</f>
-        <v>563.01</v>
-      </c>
-      <c r="S10" s="23">
-        <f>SUM(S2:S9)</f>
-        <v>563.01</v>
-      </c>
-      <c r="T10" s="31">
-        <f>SUM(I10:S10)</f>
-        <v>46591.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="8">
-        <v>390.12</v>
-      </c>
-      <c r="H11" s="16">
-        <v>1458</v>
-      </c>
-      <c r="I11" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="J11" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="K11" s="18">
-        <v>57.73</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11">
-        <v>57.73</v>
-      </c>
-      <c r="O11" s="16">
-        <v>1458</v>
-      </c>
-      <c r="P11" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="R11" s="19">
-        <v>57.73</v>
-      </c>
-      <c r="S11" s="19">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="8">
-        <v>390.12</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1458</v>
-      </c>
-      <c r="I12" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="J12" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="K12" s="18">
-        <v>57.73</v>
-      </c>
-      <c r="L12" s="19"/>
-      <c r="M12">
-        <v>57.73</v>
-      </c>
-      <c r="O12" s="16">
-        <v>1458</v>
-      </c>
-      <c r="P12" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="R12" s="19">
-        <v>57.73</v>
-      </c>
-      <c r="S12" s="19">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>43161</v>
+      </c>
+      <c r="B3" s="59">
+        <v>3601.88</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">B3/1.13</f>
+        <v>3187.5044247787614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>43162</v>
+      </c>
+      <c r="B4" s="59">
+        <v>1440.75</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1275.0000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>43175</v>
+      </c>
+      <c r="B5" s="59">
+        <v>4322.25</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3825.0000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43188</v>
+      </c>
+      <c r="B6" s="59">
+        <v>7203.76</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6375.0088495575228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43203</v>
+      </c>
+      <c r="B7" s="59">
+        <v>8740.5499999999993</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43217</v>
+      </c>
+      <c r="B8" s="59">
+        <v>7203.76</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6375.0088495575228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43231</v>
+      </c>
+      <c r="B9" s="59">
+        <v>7395.86</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6545.0088495575228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B10" s="59">
+        <v>2949.3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2610.0000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="61">
+        <f>SUM(B3:B10)</f>
+        <v>42858.11</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E3:E10)</f>
+        <v>37927.530973451328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="8">
-        <v>390.12</v>
-      </c>
-      <c r="H13" s="16">
-        <v>1458</v>
-      </c>
-      <c r="I13" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="J13" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="K13" s="18">
-        <v>57.73</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="M13">
-        <v>57.73</v>
-      </c>
-      <c r="O13" s="16">
-        <v>1458</v>
-      </c>
-      <c r="P13" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="R13" s="19">
-        <v>57.73</v>
-      </c>
-      <c r="S13" s="19">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B12*C2</f>
+        <v>3771.51368</v>
+      </c>
+      <c r="E13" s="3">
+        <f>B12-E12-B13</f>
+        <v>1159.0653465486721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="8">
-        <v>390.12</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1458</v>
-      </c>
-      <c r="I14" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="J14" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="K14" s="18">
-        <v>57.73</v>
-      </c>
-      <c r="L14" s="19"/>
-      <c r="M14">
-        <v>57.73</v>
-      </c>
-      <c r="O14" s="16">
-        <v>1458</v>
-      </c>
-      <c r="P14" s="17">
-        <v>1320.67</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="R14" s="19">
-        <v>57.73</v>
-      </c>
-      <c r="S14" s="19">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="46">
-        <f>SUM(H10:H14)</f>
-        <v>24789.35</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="47">
-        <f>SUM(J10:J14)</f>
-        <v>2505.8999999999996</v>
-      </c>
-      <c r="K15" s="47">
-        <f>SUM(K10:K14)</f>
-        <v>1053.8100000000002</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25">
-        <f>SUM(M10:M14)</f>
-        <v>1053.8100000000002</v>
-      </c>
-      <c r="O15" s="46">
-        <f>SUM(O10:O14)</f>
-        <v>18956.010000000002</v>
-      </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="47">
-        <f>SUM(Q10:Q14)</f>
-        <v>1726.4199999999994</v>
-      </c>
-      <c r="R15" s="48">
-        <f>SUM(R10:R14)</f>
-        <v>793.93000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="6" customFormat="1">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-    </row>
-    <row r="17" spans="1:18" s="6" customFormat="1">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H18">
-        <v>1458</v>
-      </c>
-      <c r="I18">
-        <v>1325.72</v>
-      </c>
-      <c r="J18">
-        <v>74.55</v>
-      </c>
-      <c r="K18">
-        <v>57.73</v>
-      </c>
-      <c r="M18">
-        <v>57.73</v>
-      </c>
-      <c r="N18">
-        <f>SUM(I18:M18)*2</f>
-        <v>3031.46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="B19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H19">
-        <v>1458</v>
-      </c>
-      <c r="I19">
-        <v>1325.72</v>
-      </c>
-      <c r="J19">
-        <v>74.55</v>
-      </c>
-      <c r="K19">
-        <v>57.73</v>
-      </c>
-      <c r="M19">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="B20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H20">
-        <v>1458</v>
-      </c>
-      <c r="I20">
-        <v>1325.72</v>
-      </c>
-      <c r="J20">
-        <v>74.55</v>
-      </c>
-      <c r="K20">
-        <v>57.73</v>
-      </c>
-      <c r="M20">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="B21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H21">
-        <v>1458</v>
-      </c>
-      <c r="I21">
-        <v>1325.72</v>
-      </c>
-      <c r="J21">
-        <v>74.55</v>
-      </c>
-      <c r="K21">
-        <v>57.73</v>
-      </c>
-      <c r="M21">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="B22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H22">
-        <v>1458</v>
-      </c>
-      <c r="I22">
-        <v>1325.72</v>
-      </c>
-      <c r="J22">
-        <v>74.55</v>
-      </c>
-      <c r="K22">
-        <v>57.73</v>
-      </c>
-      <c r="M22">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="B23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H23">
-        <v>1458</v>
-      </c>
-      <c r="I23">
-        <v>1325.72</v>
-      </c>
-      <c r="J23">
-        <v>74.55</v>
-      </c>
-      <c r="K23">
-        <v>57.73</v>
-      </c>
-      <c r="M23">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="B24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H24">
-        <v>1458</v>
-      </c>
-      <c r="I24">
-        <v>1325.72</v>
-      </c>
-      <c r="J24">
-        <v>74.55</v>
-      </c>
-      <c r="K24">
-        <v>57.73</v>
-      </c>
-      <c r="M24">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="B25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H25">
-        <v>1458</v>
-      </c>
-      <c r="I25">
-        <v>1325.72</v>
-      </c>
-      <c r="J25">
-        <v>74.55</v>
-      </c>
-      <c r="K25">
-        <v>57.73</v>
-      </c>
-      <c r="M25">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="12" customHeight="1">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="B27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H27">
-        <v>1458</v>
-      </c>
-      <c r="I27">
-        <v>1325.72</v>
-      </c>
-      <c r="J27">
-        <v>74.55</v>
-      </c>
-      <c r="K27">
-        <v>57.73</v>
-      </c>
-      <c r="M27">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="B28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H28">
-        <v>1458</v>
-      </c>
-      <c r="I28">
-        <v>1325.72</v>
-      </c>
-      <c r="J28">
-        <v>74.55</v>
-      </c>
-      <c r="K28">
-        <v>57.73</v>
-      </c>
-      <c r="M28">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="B29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H29">
-        <v>1458</v>
-      </c>
-      <c r="I29">
-        <v>1325.72</v>
-      </c>
-      <c r="J29">
-        <v>74.55</v>
-      </c>
-      <c r="K29">
-        <v>57.73</v>
-      </c>
-      <c r="M29">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="B30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="8">
-        <v>2916</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="8">
-        <v>380.02</v>
-      </c>
-      <c r="H30">
-        <v>1458</v>
-      </c>
-      <c r="I30">
-        <v>1325.72</v>
-      </c>
-      <c r="J30">
-        <v>74.55</v>
-      </c>
-      <c r="K30">
-        <v>57.73</v>
-      </c>
-      <c r="M30">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="C31" s="8"/>
-      <c r="H31" s="45">
-        <f>SUM(H18:H30)</f>
-        <v>17496</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="45">
-        <f>SUM(J18:J30)</f>
-        <v>894.5999999999998</v>
-      </c>
-      <c r="K31" s="45">
-        <f>SUM(K18:K30)</f>
-        <v>692.7600000000001</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2">
-        <f>SUM(M18:M30)</f>
-        <v>692.7600000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="H32">
-        <v>17496</v>
-      </c>
-      <c r="J32">
-        <v>894.6</v>
-      </c>
-      <c r="K32">
-        <v>692.76</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="H33">
-        <f>SUM(H31:H32)</f>
-        <v>34992</v>
-      </c>
-      <c r="J33">
-        <f>SUM(J31:J32)</f>
-        <v>1789.1999999999998</v>
-      </c>
-      <c r="K33">
-        <f>SUM(K31:K32)</f>
-        <v>1385.52</v>
-      </c>
-      <c r="L33">
-        <v>1385.52</v>
-      </c>
-      <c r="M33">
-        <f>SUM(J33:L33)</f>
-        <v>4560.24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H35">
-        <v>1500</v>
-      </c>
-      <c r="I35">
-        <v>1359.4</v>
-      </c>
-      <c r="J35">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K35">
-        <v>59.81</v>
-      </c>
-      <c r="M35">
-        <v>59.81</v>
-      </c>
-      <c r="N35">
-        <f>SUM(J35:M35)</f>
-        <v>200.41000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H36">
-        <v>1500</v>
-      </c>
-      <c r="I36">
-        <v>1359.4</v>
-      </c>
-      <c r="J36">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K36">
-        <v>59.81</v>
-      </c>
-      <c r="M36">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H37">
-        <v>1500</v>
-      </c>
-      <c r="I37">
-        <v>1359.4</v>
-      </c>
-      <c r="J37">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K37">
-        <v>59.81</v>
-      </c>
-      <c r="M37">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H38">
-        <v>1500</v>
-      </c>
-      <c r="I38">
-        <v>1359.4</v>
-      </c>
-      <c r="J38">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K38">
-        <v>59.81</v>
-      </c>
-      <c r="M38">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H39">
-        <v>1500</v>
-      </c>
-      <c r="I39">
-        <v>1359.4</v>
-      </c>
-      <c r="J39">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K39">
-        <v>59.81</v>
-      </c>
-      <c r="M39">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H40">
-        <v>1500</v>
-      </c>
-      <c r="I40">
-        <v>1359.4</v>
-      </c>
-      <c r="J40">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K40">
-        <v>59.81</v>
-      </c>
-      <c r="M40">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H41">
-        <v>1500</v>
-      </c>
-      <c r="I41">
-        <v>1359.4</v>
-      </c>
-      <c r="J41">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K41">
-        <v>59.81</v>
-      </c>
-      <c r="M41">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="B42" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H42">
-        <v>1500</v>
-      </c>
-      <c r="I42">
-        <v>1359.4</v>
-      </c>
-      <c r="J42">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K42">
-        <v>59.81</v>
-      </c>
-      <c r="M42">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H44">
-        <v>1500</v>
-      </c>
-      <c r="I44">
-        <v>1359.4</v>
-      </c>
-      <c r="J44">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K44">
-        <v>59.81</v>
-      </c>
-      <c r="M44">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H45">
-        <v>1500</v>
-      </c>
-      <c r="I45">
-        <v>1359.4</v>
-      </c>
-      <c r="J45">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K45">
-        <v>59.81</v>
-      </c>
-      <c r="M45">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="B46" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H46">
-        <v>1500</v>
-      </c>
-      <c r="I46">
-        <v>1359.4</v>
-      </c>
-      <c r="J46">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K46">
-        <v>59.81</v>
-      </c>
-      <c r="M46">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="B47" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="8">
-        <v>400.82</v>
-      </c>
-      <c r="H47">
-        <v>1500</v>
-      </c>
-      <c r="I47">
-        <v>1359.4</v>
-      </c>
-      <c r="J47">
-        <v>80.790000000000006</v>
-      </c>
-      <c r="K47">
-        <v>59.81</v>
-      </c>
-      <c r="M47">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="C48" s="8">
-        <f>SUM(C35:C37)</f>
-        <v>9000</v>
-      </c>
-      <c r="F48" s="8">
-        <f>SUM(F35:F37)</f>
-        <v>1202.46</v>
-      </c>
-      <c r="H48" s="45">
-        <f>SUM(H35:H47)</f>
-        <v>18000</v>
-      </c>
-      <c r="J48" s="45">
-        <f>SUM(J35:J47)</f>
-        <v>969.4799999999999</v>
-      </c>
-      <c r="K48" s="45">
-        <f>SUM(K35:K47)</f>
-        <v>717.7199999999998</v>
-      </c>
-      <c r="M48" s="45">
-        <f>SUM(M35:M47)</f>
-        <v>717.7199999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15">
-      <c r="B50" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H50">
-        <v>1500</v>
-      </c>
-      <c r="I50">
-        <v>1363.63</v>
-      </c>
-      <c r="J50">
-        <v>76.56</v>
-      </c>
-      <c r="K50">
-        <v>59.81</v>
-      </c>
-      <c r="M50">
-        <v>59.81</v>
-      </c>
-      <c r="N50">
-        <f>SUM(J50:M50)</f>
-        <v>196.18</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15">
-      <c r="B51" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H51">
-        <v>1500</v>
-      </c>
-      <c r="I51">
-        <v>1363.63</v>
-      </c>
-      <c r="J51">
-        <v>76.56</v>
-      </c>
-      <c r="K51">
-        <v>59.81</v>
-      </c>
-      <c r="M51">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15">
-      <c r="B52" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H52">
-        <v>1500</v>
-      </c>
-      <c r="I52">
-        <v>1363.63</v>
-      </c>
-      <c r="J52">
-        <v>76.56</v>
-      </c>
-      <c r="K52">
-        <v>59.81</v>
-      </c>
-      <c r="M52">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15">
-      <c r="B53" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H53">
-        <v>1500</v>
-      </c>
-      <c r="I53">
-        <v>1363.63</v>
-      </c>
-      <c r="J53">
-        <v>76.56</v>
-      </c>
-      <c r="K53">
-        <v>59.81</v>
-      </c>
-      <c r="M53">
-        <v>59.81</v>
-      </c>
-      <c r="N53">
-        <f>SUM(J53:M53)</f>
-        <v>196.18</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15">
-      <c r="B54" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H54">
-        <v>1500</v>
-      </c>
-      <c r="I54">
-        <v>1363.63</v>
-      </c>
-      <c r="J54">
-        <v>76.56</v>
-      </c>
-      <c r="K54">
-        <v>59.81</v>
-      </c>
-      <c r="M54">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15">
-      <c r="B55" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H55">
-        <v>1500</v>
-      </c>
-      <c r="I55">
-        <v>1363.63</v>
-      </c>
-      <c r="J55">
-        <v>76.56</v>
-      </c>
-      <c r="K55">
-        <v>59.81</v>
-      </c>
-      <c r="M55">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15">
-      <c r="C56" s="8"/>
-      <c r="E56" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H56">
-        <v>1500</v>
-      </c>
-      <c r="I56">
-        <v>1363.63</v>
-      </c>
-      <c r="J56">
-        <v>76.56</v>
-      </c>
-      <c r="K56">
-        <v>59.81</v>
-      </c>
-      <c r="M56">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15">
-      <c r="C57" s="8"/>
-      <c r="E57" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H57">
-        <v>1500</v>
-      </c>
-      <c r="I57">
-        <v>1363.63</v>
-      </c>
-      <c r="J57">
-        <v>76.56</v>
-      </c>
-      <c r="K57">
-        <v>59.81</v>
-      </c>
-      <c r="M57">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15">
-      <c r="C58" s="8"/>
-      <c r="E58" t="s">
-        <v>104</v>
-      </c>
-      <c r="F58" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H58">
-        <v>1500</v>
-      </c>
-      <c r="I58">
-        <v>1363.63</v>
-      </c>
-      <c r="J58">
-        <v>76.56</v>
-      </c>
-      <c r="K58">
-        <v>59.81</v>
-      </c>
-      <c r="M58">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15">
-      <c r="C59" s="8"/>
-      <c r="E59" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H59">
-        <v>1500</v>
-      </c>
-      <c r="I59">
-        <v>1363.63</v>
-      </c>
-      <c r="J59">
-        <v>76.56</v>
-      </c>
-      <c r="K59">
-        <v>59.81</v>
-      </c>
-      <c r="M59">
-        <v>59.81</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15">
-      <c r="C60" s="8"/>
-      <c r="E60" t="s">
-        <v>107</v>
-      </c>
-      <c r="F60" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H60">
-        <v>1500</v>
-      </c>
-      <c r="I60">
-        <v>1363.63</v>
-      </c>
-      <c r="J60">
-        <v>76.56</v>
-      </c>
-      <c r="K60">
-        <v>59.81</v>
-      </c>
-      <c r="M60">
-        <v>59.81</v>
-      </c>
-      <c r="O60">
-        <f>1500*2*3</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15">
-      <c r="C61" s="8"/>
-      <c r="E61" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="8">
-        <v>392.36</v>
-      </c>
-      <c r="H61">
-        <v>1500</v>
-      </c>
-      <c r="I61">
-        <v>1363.63</v>
-      </c>
-      <c r="J61">
-        <v>76.56</v>
-      </c>
-      <c r="K61">
-        <v>59.81</v>
-      </c>
-      <c r="M61">
-        <v>59.81</v>
-      </c>
-      <c r="O61">
-        <f>I61*2</f>
-        <v>2727.26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15">
-      <c r="C62" s="8">
-        <v>9000</v>
-      </c>
-      <c r="F62" s="8">
-        <f>SUM(F56:F58)</f>
-        <v>1177.08</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15">
-      <c r="E63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63">
-        <f>N63*2</f>
-        <v>481.05999999999995</v>
-      </c>
-      <c r="H63">
-        <v>1645</v>
-      </c>
-      <c r="I63">
-        <v>1471.46</v>
-      </c>
-      <c r="J63">
-        <v>106.55</v>
-      </c>
-      <c r="K63">
-        <v>66.989999999999995</v>
-      </c>
-      <c r="M63">
-        <v>66.989999999999995</v>
-      </c>
-      <c r="N63">
-        <f>SUM(J63:M63)</f>
-        <v>240.52999999999997</v>
-      </c>
-      <c r="O63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15">
-      <c r="E64" t="s">
-        <v>111</v>
-      </c>
-      <c r="F64">
-        <f>N64*2</f>
-        <v>481.05999999999995</v>
-      </c>
-      <c r="H64">
-        <v>1645</v>
-      </c>
-      <c r="I64">
-        <v>1471.46</v>
-      </c>
-      <c r="J64">
-        <v>106.55</v>
-      </c>
-      <c r="K64">
-        <v>66.989999999999995</v>
-      </c>
-      <c r="M64">
-        <v>66.989999999999995</v>
-      </c>
-      <c r="N64">
-        <f>SUM(J64:M64)</f>
-        <v>240.52999999999997</v>
-      </c>
-      <c r="O64">
-        <f>1645*2*3</f>
-        <v>9870</v>
-      </c>
-    </row>
-    <row r="65" spans="5:15">
-      <c r="E65" t="s">
-        <v>112</v>
-      </c>
-      <c r="F65">
-        <f>N65*2</f>
-        <v>481.05999999999995</v>
-      </c>
-      <c r="H65">
-        <v>1645</v>
-      </c>
-      <c r="I65">
-        <v>1471.46</v>
-      </c>
-      <c r="J65">
-        <v>106.55</v>
-      </c>
-      <c r="K65">
-        <v>66.989999999999995</v>
-      </c>
-      <c r="M65">
-        <v>66.989999999999995</v>
-      </c>
-      <c r="N65">
-        <f>SUM(J65:M65)</f>
-        <v>240.52999999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="5:15">
-      <c r="F66">
-        <f>SUM(F63:F65)</f>
-        <v>1443.1799999999998</v>
-      </c>
-      <c r="O66">
-        <f>I63*2</f>
-        <v>2942.92</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <f>B13-B14</f>
+        <v>3771.51368</v>
       </c>
     </row>
   </sheetData>
@@ -5303,132 +3379,164 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1">
-        <v>2015</v>
-      </c>
-      <c r="C1">
-        <v>2016</v>
-      </c>
-      <c r="D1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3">
-        <v>2500</v>
-      </c>
-      <c r="D3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <f>750*20%</f>
-        <v>150</v>
-      </c>
-      <c r="C4">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <v>4811.3999999999996</v>
-      </c>
-      <c r="C5">
-        <v>3882.7</v>
-      </c>
-      <c r="D5">
-        <v>4073.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>6779.02</v>
-      </c>
-      <c r="C6">
-        <v>6218.62</v>
-      </c>
-      <c r="D6">
-        <v>6491.96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>344.46</v>
-      </c>
-      <c r="C7">
-        <v>384</v>
-      </c>
-      <c r="D7">
-        <v>462.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>500</v>
-      </c>
-      <c r="D9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10">
-        <f>SUM(B4:B9)</f>
-        <v>12184.88</v>
-      </c>
-      <c r="C10">
-        <f>SUM(C4:C9)</f>
-        <v>10985.32</v>
-      </c>
-      <c r="D10">
-        <f>SUM(D3:D9)</f>
-        <v>13527.49</v>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B3" s="59">
+        <v>7373.26</v>
+      </c>
+      <c r="E3">
+        <f>B3/1.13</f>
+        <v>6525.0088495575228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B4" s="59">
+        <v>6635.93</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4">
+        <f t="shared" ref="E4:E8" si="0">B4/1.13</f>
+        <v>5872.5044247787619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B5" s="59">
+        <v>7373.26</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6525.0088495575228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43297</v>
+      </c>
+      <c r="B6" s="59">
+        <v>10322.549999999999</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>9135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B7" s="59">
+        <v>7373.26</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6525.0088495575228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43328</v>
+      </c>
+      <c r="B8" s="59">
+        <v>7373.26</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6525.0088495575228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="59"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="61">
+        <f>SUM(B3:B9)</f>
+        <v>46451.520000000004</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E3:E9)</f>
+        <v>41107.539823008854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B10*C2</f>
+        <v>4087.7337600000001</v>
+      </c>
+      <c r="E11" s="3">
+        <f>B10-E10-B11</f>
+        <v>1256.24641699115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B11-B12</f>
+        <v>4087.7337600000001</v>
       </c>
     </row>
   </sheetData>
@@ -5670,10 +3778,2502 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B3" s="59">
+        <v>6635.93</v>
+      </c>
+      <c r="E3">
+        <f>B3/1.13</f>
+        <v>5872.5044247787619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="58"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="59"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="61">
+        <f>SUM(B3:B9)</f>
+        <v>6635.93</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E3:E9)</f>
+        <v>5872.5044247787619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B10*C2</f>
+        <v>583.96183999999994</v>
+      </c>
+      <c r="E11" s="3">
+        <f>B10-E10-B11</f>
+        <v>179.46373522123849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B11-B12</f>
+        <v>283.96183999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T69"/>
+  <sheetViews>
+    <sheetView topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5833.34</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1299.24</v>
+      </c>
+      <c r="H2" s="16">
+        <v>2916.67</v>
+      </c>
+      <c r="I2" s="17">
+        <v>2396.9899999999998</v>
+      </c>
+      <c r="J2" s="18">
+        <v>389.74</v>
+      </c>
+      <c r="K2" s="18">
+        <v>129.94</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2">
+        <v>129.94</v>
+      </c>
+      <c r="O2" s="13">
+        <v>2916.67</v>
+      </c>
+      <c r="P2" s="26">
+        <v>2396.9899999999998</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>389.74</v>
+      </c>
+      <c r="R2" s="15">
+        <v>129.94</v>
+      </c>
+      <c r="S2" s="15">
+        <v>129.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5833.34</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1299.24</v>
+      </c>
+      <c r="H3" s="16">
+        <v>2916.67</v>
+      </c>
+      <c r="I3" s="17">
+        <v>2396.9899999999998</v>
+      </c>
+      <c r="J3" s="18">
+        <v>389.74</v>
+      </c>
+      <c r="K3" s="18">
+        <v>129.94</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3">
+        <v>129.94</v>
+      </c>
+      <c r="O3" s="16">
+        <v>2916.67</v>
+      </c>
+      <c r="P3" s="17">
+        <v>2396.9899999999998</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>389.74</v>
+      </c>
+      <c r="R3" s="19">
+        <v>129.94</v>
+      </c>
+      <c r="S3" s="19">
+        <v>129.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5833.34</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1299.24</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2916.67</v>
+      </c>
+      <c r="I4" s="17">
+        <v>2396.9899999999998</v>
+      </c>
+      <c r="J4" s="18">
+        <v>389.74</v>
+      </c>
+      <c r="K4" s="18">
+        <v>129.94</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4">
+        <v>129.94</v>
+      </c>
+      <c r="O4" s="16">
+        <v>2916.67</v>
+      </c>
+      <c r="P4" s="17">
+        <v>2396.9899999999998</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>389.74</v>
+      </c>
+      <c r="R4" s="19">
+        <v>129.94</v>
+      </c>
+      <c r="S4" s="19">
+        <v>129.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2916.67</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>649.62</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2916.67</v>
+      </c>
+      <c r="I5" s="17">
+        <v>2396.9899999999998</v>
+      </c>
+      <c r="J5" s="18">
+        <v>389.74</v>
+      </c>
+      <c r="K5" s="18">
+        <v>129.94</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5">
+        <v>129.94</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2916.67</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8">
+        <v>649.62</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2916.67</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2396.9899999999998</v>
+      </c>
+      <c r="J6" s="18">
+        <v>389.74</v>
+      </c>
+      <c r="K6" s="18">
+        <v>129.94</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6">
+        <v>129.94</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8">
+        <v>507.92</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1458</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="J7" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K7" s="18">
+        <v>57.73</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7">
+        <v>57.73</v>
+      </c>
+      <c r="O7" s="16">
+        <v>1458</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="R7" s="19">
+        <v>57.73</v>
+      </c>
+      <c r="S7" s="19">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8">
+        <v>272.32</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1458</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="J8" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K8" s="18">
+        <v>57.73</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8">
+        <v>57.73</v>
+      </c>
+      <c r="O8" s="16">
+        <v>1458</v>
+      </c>
+      <c r="P8" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="R8" s="19">
+        <v>57.73</v>
+      </c>
+      <c r="S8" s="19">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8">
+        <v>390.12</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1458</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="J9" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K9" s="18">
+        <v>57.73</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9">
+        <v>57.73</v>
+      </c>
+      <c r="O9" s="16">
+        <v>1458</v>
+      </c>
+      <c r="P9" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="R9" s="19">
+        <v>57.73</v>
+      </c>
+      <c r="S9" s="19">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12">
+        <f>SUM(C2:C9)</f>
+        <v>32081.360000000001</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="12">
+        <f>SUM(F2:F9)</f>
+        <v>6367.32</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="20">
+        <f>SUM(H2:H9)</f>
+        <v>18957.349999999999</v>
+      </c>
+      <c r="I10" s="21">
+        <f>SUM(I2:I9)</f>
+        <v>15946.96</v>
+      </c>
+      <c r="J10" s="22">
+        <f>SUM(J2:J9)</f>
+        <v>2187.5</v>
+      </c>
+      <c r="K10" s="22">
+        <f>SUM(K2:K9)</f>
+        <v>822.8900000000001</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="2">
+        <f>SUM(M2:M9)</f>
+        <v>822.8900000000001</v>
+      </c>
+      <c r="O10" s="20">
+        <f>SUM(O2:O9)</f>
+        <v>13124.01</v>
+      </c>
+      <c r="P10" s="21">
+        <f>SUM(P2:P9)</f>
+        <v>11152.98</v>
+      </c>
+      <c r="Q10" s="22">
+        <f>SUM(Q2:Q9)</f>
+        <v>1408.0199999999998</v>
+      </c>
+      <c r="R10" s="23">
+        <f>SUM(R2:R9)</f>
+        <v>563.01</v>
+      </c>
+      <c r="S10" s="23">
+        <f>SUM(S2:S9)</f>
+        <v>563.01</v>
+      </c>
+      <c r="T10" s="31">
+        <f>SUM(I10:S10)</f>
+        <v>46591.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8">
+        <v>390.12</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1458</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="J11" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K11" s="18">
+        <v>57.73</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11">
+        <v>57.73</v>
+      </c>
+      <c r="O11" s="16">
+        <v>1458</v>
+      </c>
+      <c r="P11" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="R11" s="19">
+        <v>57.73</v>
+      </c>
+      <c r="S11" s="19">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8">
+        <v>390.12</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1458</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="J12" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K12" s="18">
+        <v>57.73</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12">
+        <v>57.73</v>
+      </c>
+      <c r="O12" s="16">
+        <v>1458</v>
+      </c>
+      <c r="P12" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="R12" s="19">
+        <v>57.73</v>
+      </c>
+      <c r="S12" s="19">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8">
+        <v>390.12</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1458</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="J13" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K13" s="18">
+        <v>57.73</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13">
+        <v>57.73</v>
+      </c>
+      <c r="O13" s="16">
+        <v>1458</v>
+      </c>
+      <c r="P13" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="R13" s="19">
+        <v>57.73</v>
+      </c>
+      <c r="S13" s="19">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="8">
+        <v>390.12</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1458</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="J14" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K14" s="18">
+        <v>57.73</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14">
+        <v>57.73</v>
+      </c>
+      <c r="O14" s="16">
+        <v>1458</v>
+      </c>
+      <c r="P14" s="17">
+        <v>1320.67</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="R14" s="19">
+        <v>57.73</v>
+      </c>
+      <c r="S14" s="19">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="2"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="46">
+        <f>SUM(H10:H14)</f>
+        <v>24789.35</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="47">
+        <f>SUM(J10:J14)</f>
+        <v>2505.8999999999996</v>
+      </c>
+      <c r="K15" s="47">
+        <f>SUM(K10:K14)</f>
+        <v>1053.8100000000002</v>
+      </c>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25">
+        <f>SUM(M10:M14)</f>
+        <v>1053.8100000000002</v>
+      </c>
+      <c r="O15" s="46">
+        <f>SUM(O10:O14)</f>
+        <v>18956.010000000002</v>
+      </c>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="47">
+        <f>SUM(Q10:Q14)</f>
+        <v>1726.4199999999994</v>
+      </c>
+      <c r="R15" s="48">
+        <f>SUM(R10:R14)</f>
+        <v>793.93000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="6" customFormat="1">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+    </row>
+    <row r="17" spans="1:18" s="6" customFormat="1">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H18">
+        <v>1458</v>
+      </c>
+      <c r="I18">
+        <v>1325.72</v>
+      </c>
+      <c r="J18">
+        <v>74.55</v>
+      </c>
+      <c r="K18">
+        <v>57.73</v>
+      </c>
+      <c r="M18">
+        <v>57.73</v>
+      </c>
+      <c r="N18">
+        <f>SUM(I18:M18)*2</f>
+        <v>3031.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H19">
+        <v>1458</v>
+      </c>
+      <c r="I19">
+        <v>1325.72</v>
+      </c>
+      <c r="J19">
+        <v>74.55</v>
+      </c>
+      <c r="K19">
+        <v>57.73</v>
+      </c>
+      <c r="M19">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H20">
+        <v>1458</v>
+      </c>
+      <c r="I20">
+        <v>1325.72</v>
+      </c>
+      <c r="J20">
+        <v>74.55</v>
+      </c>
+      <c r="K20">
+        <v>57.73</v>
+      </c>
+      <c r="M20">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H21">
+        <v>1458</v>
+      </c>
+      <c r="I21">
+        <v>1325.72</v>
+      </c>
+      <c r="J21">
+        <v>74.55</v>
+      </c>
+      <c r="K21">
+        <v>57.73</v>
+      </c>
+      <c r="M21">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="B22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H22">
+        <v>1458</v>
+      </c>
+      <c r="I22">
+        <v>1325.72</v>
+      </c>
+      <c r="J22">
+        <v>74.55</v>
+      </c>
+      <c r="K22">
+        <v>57.73</v>
+      </c>
+      <c r="M22">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="B23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H23">
+        <v>1458</v>
+      </c>
+      <c r="I23">
+        <v>1325.72</v>
+      </c>
+      <c r="J23">
+        <v>74.55</v>
+      </c>
+      <c r="K23">
+        <v>57.73</v>
+      </c>
+      <c r="M23">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="B24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H24">
+        <v>1458</v>
+      </c>
+      <c r="I24">
+        <v>1325.72</v>
+      </c>
+      <c r="J24">
+        <v>74.55</v>
+      </c>
+      <c r="K24">
+        <v>57.73</v>
+      </c>
+      <c r="M24">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="B25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H25">
+        <v>1458</v>
+      </c>
+      <c r="I25">
+        <v>1325.72</v>
+      </c>
+      <c r="J25">
+        <v>74.55</v>
+      </c>
+      <c r="K25">
+        <v>57.73</v>
+      </c>
+      <c r="M25">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="12" customHeight="1">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H27">
+        <v>1458</v>
+      </c>
+      <c r="I27">
+        <v>1325.72</v>
+      </c>
+      <c r="J27">
+        <v>74.55</v>
+      </c>
+      <c r="K27">
+        <v>57.73</v>
+      </c>
+      <c r="M27">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="B28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H28">
+        <v>1458</v>
+      </c>
+      <c r="I28">
+        <v>1325.72</v>
+      </c>
+      <c r="J28">
+        <v>74.55</v>
+      </c>
+      <c r="K28">
+        <v>57.73</v>
+      </c>
+      <c r="M28">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H29">
+        <v>1458</v>
+      </c>
+      <c r="I29">
+        <v>1325.72</v>
+      </c>
+      <c r="J29">
+        <v>74.55</v>
+      </c>
+      <c r="K29">
+        <v>57.73</v>
+      </c>
+      <c r="M29">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="B30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2916</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="8">
+        <v>380.02</v>
+      </c>
+      <c r="H30">
+        <v>1458</v>
+      </c>
+      <c r="I30">
+        <v>1325.72</v>
+      </c>
+      <c r="J30">
+        <v>74.55</v>
+      </c>
+      <c r="K30">
+        <v>57.73</v>
+      </c>
+      <c r="M30">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="C31" s="8"/>
+      <c r="H31" s="45">
+        <f>SUM(H18:H30)</f>
+        <v>17496</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="45">
+        <f>SUM(J18:J30)</f>
+        <v>894.5999999999998</v>
+      </c>
+      <c r="K31" s="45">
+        <f>SUM(K18:K30)</f>
+        <v>692.7600000000001</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2">
+        <f>SUM(M18:M30)</f>
+        <v>692.7600000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="H32">
+        <v>17496</v>
+      </c>
+      <c r="J32">
+        <v>894.6</v>
+      </c>
+      <c r="K32">
+        <v>692.76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="H33">
+        <f>SUM(H31:H32)</f>
+        <v>34992</v>
+      </c>
+      <c r="J33">
+        <f>SUM(J31:J32)</f>
+        <v>1789.1999999999998</v>
+      </c>
+      <c r="K33">
+        <f>SUM(K31:K32)</f>
+        <v>1385.52</v>
+      </c>
+      <c r="L33">
+        <v>1385.52</v>
+      </c>
+      <c r="M33">
+        <f>SUM(J33:L33)</f>
+        <v>4560.24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H35">
+        <v>1500</v>
+      </c>
+      <c r="I35">
+        <v>1359.4</v>
+      </c>
+      <c r="J35">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K35">
+        <v>59.81</v>
+      </c>
+      <c r="M35">
+        <v>59.81</v>
+      </c>
+      <c r="N35">
+        <f>SUM(J35:M35)</f>
+        <v>200.41000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H36">
+        <v>1500</v>
+      </c>
+      <c r="I36">
+        <v>1359.4</v>
+      </c>
+      <c r="J36">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K36">
+        <v>59.81</v>
+      </c>
+      <c r="M36">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H37">
+        <v>1500</v>
+      </c>
+      <c r="I37">
+        <v>1359.4</v>
+      </c>
+      <c r="J37">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K37">
+        <v>59.81</v>
+      </c>
+      <c r="M37">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H38">
+        <v>1500</v>
+      </c>
+      <c r="I38">
+        <v>1359.4</v>
+      </c>
+      <c r="J38">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K38">
+        <v>59.81</v>
+      </c>
+      <c r="M38">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H39">
+        <v>1500</v>
+      </c>
+      <c r="I39">
+        <v>1359.4</v>
+      </c>
+      <c r="J39">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K39">
+        <v>59.81</v>
+      </c>
+      <c r="M39">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H40">
+        <v>1500</v>
+      </c>
+      <c r="I40">
+        <v>1359.4</v>
+      </c>
+      <c r="J40">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K40">
+        <v>59.81</v>
+      </c>
+      <c r="M40">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H41">
+        <v>1500</v>
+      </c>
+      <c r="I41">
+        <v>1359.4</v>
+      </c>
+      <c r="J41">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K41">
+        <v>59.81</v>
+      </c>
+      <c r="M41">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H42">
+        <v>1500</v>
+      </c>
+      <c r="I42">
+        <v>1359.4</v>
+      </c>
+      <c r="J42">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K42">
+        <v>59.81</v>
+      </c>
+      <c r="M42">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H44">
+        <v>1500</v>
+      </c>
+      <c r="I44">
+        <v>1359.4</v>
+      </c>
+      <c r="J44">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K44">
+        <v>59.81</v>
+      </c>
+      <c r="M44">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H45">
+        <v>1500</v>
+      </c>
+      <c r="I45">
+        <v>1359.4</v>
+      </c>
+      <c r="J45">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K45">
+        <v>59.81</v>
+      </c>
+      <c r="M45">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H46">
+        <v>1500</v>
+      </c>
+      <c r="I46">
+        <v>1359.4</v>
+      </c>
+      <c r="J46">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K46">
+        <v>59.81</v>
+      </c>
+      <c r="M46">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="8">
+        <v>400.82</v>
+      </c>
+      <c r="H47">
+        <v>1500</v>
+      </c>
+      <c r="I47">
+        <v>1359.4</v>
+      </c>
+      <c r="J47">
+        <v>80.790000000000006</v>
+      </c>
+      <c r="K47">
+        <v>59.81</v>
+      </c>
+      <c r="M47">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="C48" s="8">
+        <f>SUM(C35:C37)</f>
+        <v>9000</v>
+      </c>
+      <c r="F48" s="8">
+        <f>SUM(F35:F37)</f>
+        <v>1202.46</v>
+      </c>
+      <c r="H48" s="45">
+        <f>SUM(H35:H47)</f>
+        <v>18000</v>
+      </c>
+      <c r="J48" s="45">
+        <f>SUM(J35:J47)</f>
+        <v>969.4799999999999</v>
+      </c>
+      <c r="K48" s="45">
+        <f>SUM(K35:K47)</f>
+        <v>717.7199999999998</v>
+      </c>
+      <c r="M48" s="45">
+        <f>SUM(M35:M47)</f>
+        <v>717.7199999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H50">
+        <v>1500</v>
+      </c>
+      <c r="I50">
+        <v>1363.63</v>
+      </c>
+      <c r="J50">
+        <v>76.56</v>
+      </c>
+      <c r="K50">
+        <v>59.81</v>
+      </c>
+      <c r="M50">
+        <v>59.81</v>
+      </c>
+      <c r="N50">
+        <f>SUM(J50:M50)</f>
+        <v>196.18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H51">
+        <v>1500</v>
+      </c>
+      <c r="I51">
+        <v>1363.63</v>
+      </c>
+      <c r="J51">
+        <v>76.56</v>
+      </c>
+      <c r="K51">
+        <v>59.81</v>
+      </c>
+      <c r="M51">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H52">
+        <v>1500</v>
+      </c>
+      <c r="I52">
+        <v>1363.63</v>
+      </c>
+      <c r="J52">
+        <v>76.56</v>
+      </c>
+      <c r="K52">
+        <v>59.81</v>
+      </c>
+      <c r="M52">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H53">
+        <v>1500</v>
+      </c>
+      <c r="I53">
+        <v>1363.63</v>
+      </c>
+      <c r="J53">
+        <v>76.56</v>
+      </c>
+      <c r="K53">
+        <v>59.81</v>
+      </c>
+      <c r="M53">
+        <v>59.81</v>
+      </c>
+      <c r="N53">
+        <f>SUM(J53:M53)</f>
+        <v>196.18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H54">
+        <v>1500</v>
+      </c>
+      <c r="I54">
+        <v>1363.63</v>
+      </c>
+      <c r="J54">
+        <v>76.56</v>
+      </c>
+      <c r="K54">
+        <v>59.81</v>
+      </c>
+      <c r="M54">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H55">
+        <v>1500</v>
+      </c>
+      <c r="I55">
+        <v>1363.63</v>
+      </c>
+      <c r="J55">
+        <v>76.56</v>
+      </c>
+      <c r="K55">
+        <v>59.81</v>
+      </c>
+      <c r="M55">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="C56" s="8"/>
+      <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H56">
+        <v>1500</v>
+      </c>
+      <c r="I56">
+        <v>1363.63</v>
+      </c>
+      <c r="J56">
+        <v>76.56</v>
+      </c>
+      <c r="K56">
+        <v>59.81</v>
+      </c>
+      <c r="M56">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="C57" s="8"/>
+      <c r="E57" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H57">
+        <v>1500</v>
+      </c>
+      <c r="I57">
+        <v>1363.63</v>
+      </c>
+      <c r="J57">
+        <v>76.56</v>
+      </c>
+      <c r="K57">
+        <v>59.81</v>
+      </c>
+      <c r="M57">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="C58" s="8"/>
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H58">
+        <v>1500</v>
+      </c>
+      <c r="I58">
+        <v>1363.63</v>
+      </c>
+      <c r="J58">
+        <v>76.56</v>
+      </c>
+      <c r="K58">
+        <v>59.81</v>
+      </c>
+      <c r="M58">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="C59" s="8"/>
+      <c r="E59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H59">
+        <v>1500</v>
+      </c>
+      <c r="I59">
+        <v>1363.63</v>
+      </c>
+      <c r="J59">
+        <v>76.56</v>
+      </c>
+      <c r="K59">
+        <v>59.81</v>
+      </c>
+      <c r="M59">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="C60" s="8"/>
+      <c r="E60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H60">
+        <v>1500</v>
+      </c>
+      <c r="I60">
+        <v>1363.63</v>
+      </c>
+      <c r="J60">
+        <v>76.56</v>
+      </c>
+      <c r="K60">
+        <v>59.81</v>
+      </c>
+      <c r="M60">
+        <v>59.81</v>
+      </c>
+      <c r="O60">
+        <f>1500*2*3</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="C61" s="8"/>
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="8">
+        <v>392.36</v>
+      </c>
+      <c r="H61">
+        <v>1500</v>
+      </c>
+      <c r="I61">
+        <v>1363.63</v>
+      </c>
+      <c r="J61">
+        <v>76.56</v>
+      </c>
+      <c r="K61">
+        <v>59.81</v>
+      </c>
+      <c r="M61">
+        <v>59.81</v>
+      </c>
+      <c r="O61">
+        <f>I61*2</f>
+        <v>2727.26</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="C62" s="8">
+        <v>9000</v>
+      </c>
+      <c r="F62" s="8">
+        <f>SUM(F56:F58)</f>
+        <v>1177.08</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="E63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63:F68" si="0">N63*2</f>
+        <v>481.05999999999995</v>
+      </c>
+      <c r="H63">
+        <v>1645</v>
+      </c>
+      <c r="I63">
+        <v>1471.46</v>
+      </c>
+      <c r="J63">
+        <v>106.55</v>
+      </c>
+      <c r="K63">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="M63">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="N63">
+        <f t="shared" ref="N63:N68" si="1">SUM(J63:M63)</f>
+        <v>240.52999999999997</v>
+      </c>
+      <c r="O63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="E64" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>481.05999999999995</v>
+      </c>
+      <c r="H64">
+        <v>1645</v>
+      </c>
+      <c r="I64">
+        <v>1471.46</v>
+      </c>
+      <c r="J64">
+        <v>106.55</v>
+      </c>
+      <c r="K64">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="M64">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="1"/>
+        <v>240.52999999999997</v>
+      </c>
+      <c r="O64">
+        <f>1645*2*3</f>
+        <v>9870</v>
+      </c>
+    </row>
+    <row r="65" spans="5:15">
+      <c r="E65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>481.05999999999995</v>
+      </c>
+      <c r="H65">
+        <v>1645</v>
+      </c>
+      <c r="I65">
+        <v>1471.46</v>
+      </c>
+      <c r="J65">
+        <v>106.55</v>
+      </c>
+      <c r="K65">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="M65">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="1"/>
+        <v>240.52999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="5:15">
+      <c r="E66" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>481.05999999999995</v>
+      </c>
+      <c r="H66">
+        <v>1645</v>
+      </c>
+      <c r="I66">
+        <v>1471.46</v>
+      </c>
+      <c r="J66">
+        <v>106.55</v>
+      </c>
+      <c r="K66">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="M66">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="1"/>
+        <v>240.52999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="5:15">
+      <c r="E67" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>481.05999999999995</v>
+      </c>
+      <c r="H67">
+        <v>1645</v>
+      </c>
+      <c r="I67">
+        <v>1471.46</v>
+      </c>
+      <c r="J67">
+        <v>106.55</v>
+      </c>
+      <c r="K67">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="M67">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="1"/>
+        <v>240.52999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="5:15">
+      <c r="E68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>481.05999999999995</v>
+      </c>
+      <c r="H68">
+        <v>1645</v>
+      </c>
+      <c r="I68">
+        <v>1471.46</v>
+      </c>
+      <c r="J68">
+        <v>106.55</v>
+      </c>
+      <c r="K68">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="M68">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="1"/>
+        <v>240.52999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="5:15">
+      <c r="F69">
+        <f>SUM(F63:F65)</f>
+        <v>1443.1799999999998</v>
+      </c>
+      <c r="H69">
+        <f>SUM(H63:H68)</f>
+        <v>9870</v>
+      </c>
+      <c r="O69">
+        <f>I63*2</f>
+        <v>2942.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>2500</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <f>750*20%</f>
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>4811.3999999999996</v>
+      </c>
+      <c r="C5">
+        <v>3882.7</v>
+      </c>
+      <c r="D5">
+        <v>4073.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>6779.02</v>
+      </c>
+      <c r="C6">
+        <v>6218.62</v>
+      </c>
+      <c r="D6">
+        <v>6491.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>344.46</v>
+      </c>
+      <c r="C7">
+        <v>384</v>
+      </c>
+      <c r="D7">
+        <v>462.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10">
+        <f>SUM(B4:B9)</f>
+        <v>12184.88</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C4:C9)</f>
+        <v>10985.32</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D3:D9)</f>
+        <v>13527.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
@@ -6487,6 +7087,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
